--- a/Doc/BOM.xlsx
+++ b/Doc/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Nathan\Documents\IoT\Repo's\TM_2021-2022_Open-ECOsystem-Control_OECOC\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB18A47-47EF-4203-BDA1-CCD3F8B8B635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7719B3F7-5F4E-4096-8F83-D7C4E647F8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1365" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>DS18B20</t>
+  </si>
+  <si>
+    <t>8 Relay module</t>
+  </si>
+  <si>
+    <t>Raspberry pi</t>
+  </si>
+  <si>
+    <t>Touchscreen</t>
+  </si>
+  <si>
+    <t>1 Node</t>
+  </si>
+  <si>
+    <t>Reed switch</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>project Total</t>
+  </si>
+  <si>
+    <t>5v regulator or adapter</t>
   </si>
 </sst>
 </file>
@@ -360,13 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -380,18 +407,85 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
